--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2256.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2256.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.182187730537858</v>
+        <v>0.9591774940490723</v>
       </c>
       <c r="B1">
-        <v>2.29698703614132</v>
+        <v>2.810628414154053</v>
       </c>
       <c r="C1">
-        <v>6.839334053815152</v>
+        <v>5.46741247177124</v>
       </c>
       <c r="D1">
-        <v>2.492443252549678</v>
+        <v>2.099783420562744</v>
       </c>
       <c r="E1">
-        <v>1.196598074487072</v>
+        <v>1.187044262886047</v>
       </c>
     </row>
   </sheetData>
